--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject3.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject3.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -131,7 +131,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="0">
         <v>0</v>
@@ -143,7 +143,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="0">
-        <v>0</v>
+        <v>0.85958044719770177</v>
       </c>
       <c r="G1" s="0">
         <v>0</v>
@@ -212,7 +212,7 @@
         <v>0</v>
       </c>
       <c r="AC1" s="0">
-        <v>0</v>
+        <v>0.55912107944494815</v>
       </c>
       <c r="AD1" s="0">
         <v>0</v>
@@ -221,7 +221,7 @@
         <v>0</v>
       </c>
       <c r="AF1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG1" s="0">
         <v>0</v>
@@ -257,7 +257,7 @@
         <v>0</v>
       </c>
       <c r="AR1" s="0">
-        <v>0</v>
+        <v>0.67218154658216256</v>
       </c>
       <c r="AS1" s="0">
         <v>0</v>
@@ -275,7 +275,7 @@
         <v>0</v>
       </c>
       <c r="AX1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY1" s="0">
         <v>0</v>
@@ -334,7 +334,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
@@ -421,7 +421,7 @@
         <v>0</v>
       </c>
       <c r="AD2" s="0">
-        <v>0</v>
+        <v>0.85236262328097068</v>
       </c>
       <c r="AE2" s="0">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="AL2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM2" s="0">
         <v>0</v>
@@ -472,16 +472,16 @@
         <v>0</v>
       </c>
       <c r="AU2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV2" s="0">
-        <v>0</v>
+        <v>0.99706599992121581</v>
       </c>
       <c r="AW2" s="0">
         <v>0</v>
       </c>
       <c r="AX2" s="0">
-        <v>0</v>
+        <v>0.61461245595806446</v>
       </c>
       <c r="AY2" s="0">
         <v>0</v>
@@ -555,7 +555,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="0">
         <v>0</v>
@@ -567,7 +567,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="0">
         <v>0</v>
@@ -657,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="AN3" s="0">
-        <v>0</v>
+        <v>0.58464555176115862</v>
       </c>
       <c r="AO3" s="0">
         <v>0</v>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="BA3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB3" s="0">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="BG3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH3" s="0">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="BK3" s="0">
-        <v>0</v>
+        <v>0.88742534731622902</v>
       </c>
       <c r="BL3" s="0">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="BO3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP3" s="0">
         <v>0</v>
@@ -764,13 +764,13 @@
         <v>0</v>
       </c>
       <c r="G4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="0">
         <v>0</v>
       </c>
       <c r="I4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="0">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="0">
-        <v>0</v>
+        <v>0.95501951163764787</v>
       </c>
       <c r="P4" s="0">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="AE4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="0">
         <v>0</v>
@@ -875,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="AR4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS4" s="0">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="AY4" s="0">
-        <v>0</v>
+        <v>0.58063047323098438</v>
       </c>
       <c r="AZ4" s="0">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="BE4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF4" s="0">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="BN4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO4" s="0">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="T5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" s="0">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="AM5" s="0">
-        <v>0</v>
+        <v>0.7084672852863354</v>
       </c>
       <c r="AN5" s="0">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="AQ5" s="0">
-        <v>1</v>
+        <v>0.62133931296479017</v>
       </c>
       <c r="AR5" s="0">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="BO5" s="0">
-        <v>0</v>
+        <v>0.67031466021566288</v>
       </c>
       <c r="BP5" s="0">
         <v>0</v>
@@ -1158,13 +1158,13 @@
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0</v>
+        <v>0.89013549103003475</v>
       </c>
       <c r="B6" s="0">
         <v>0</v>
       </c>
       <c r="C6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
@@ -1230,10 +1230,10 @@
         <v>0</v>
       </c>
       <c r="Y6" s="0">
-        <v>0</v>
+        <v>0.56954231986337922</v>
       </c>
       <c r="Z6" s="0">
-        <v>0</v>
+        <v>0.50166892167978072</v>
       </c>
       <c r="AA6" s="0">
         <v>0</v>
@@ -1248,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="AE6" s="0">
-        <v>0</v>
+        <v>0.6931996662948543</v>
       </c>
       <c r="AF6" s="0">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="AH6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="0">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="AS6" s="0">
-        <v>0</v>
+        <v>0.60238191999491575</v>
       </c>
       <c r="AT6" s="0">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="BP6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1373,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="0">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0</v>
+        <v>0.52550423192457951</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1403,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="0">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="0">
-        <v>0</v>
+        <v>0.75816528074871781</v>
       </c>
       <c r="U7" s="0">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="0">
-        <v>0</v>
+        <v>0.79126716461233026</v>
       </c>
       <c r="X7" s="0">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="AM7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN7" s="0">
         <v>0</v>
@@ -1544,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="BI7" s="0">
-        <v>0</v>
+        <v>0.91635912201162761</v>
       </c>
       <c r="BJ7" s="0">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="0">
-        <v>0</v>
+        <v>0.66725092131655894</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="0">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="R8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" s="0">
         <v>0</v>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="U8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" s="0">
         <v>0</v>
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="Y8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="0">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="AH8" s="0">
-        <v>0</v>
+        <v>0.65762801193672471</v>
       </c>
       <c r="AI8" s="0">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="AR8" s="0">
-        <v>0</v>
+        <v>0.73043786916843834</v>
       </c>
       <c r="AS8" s="0">
         <v>0</v>
@@ -1741,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="BF8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG8" s="0">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="0">
         <v>0</v>
@@ -1794,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>0</v>
+        <v>0.79298596809369504</v>
       </c>
       <c r="H9" s="0">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="0">
-        <v>0</v>
+        <v>0.5733308802529764</v>
       </c>
       <c r="P9" s="0">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="S9" s="0">
-        <v>0</v>
+        <v>0.52678665631194388</v>
       </c>
       <c r="T9" s="0">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="AF9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG9" s="0">
         <v>0</v>
@@ -1938,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="BC9" s="0">
-        <v>1</v>
+        <v>0.9025855587080579</v>
       </c>
       <c r="BD9" s="0">
         <v>0</v>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="BL9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM9" s="0">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>0</v>
+        <v>0.80071516474976956</v>
       </c>
       <c r="I10" s="0">
         <v>0</v>
@@ -2021,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="0">
-        <v>0</v>
+        <v>0.63058524649689041</v>
       </c>
       <c r="O10" s="0">
         <v>0</v>
@@ -2045,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="V10" s="0">
-        <v>0</v>
+        <v>0.95152133331046085</v>
       </c>
       <c r="W10" s="0">
         <v>0</v>
@@ -2057,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="Z10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA10" s="0">
         <v>0</v>
@@ -2099,13 +2099,13 @@
         <v>0</v>
       </c>
       <c r="AN10" s="0">
-        <v>0</v>
+        <v>0.56924021627037313</v>
       </c>
       <c r="AO10" s="0">
         <v>0</v>
       </c>
       <c r="AP10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ10" s="0">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="BH10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="0">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="0">
-        <v>0</v>
+        <v>0.59779995316093304</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="V11" s="0">
-        <v>0</v>
+        <v>0.57987814209978672</v>
       </c>
       <c r="W11" s="0">
         <v>0</v>
@@ -2293,10 +2293,10 @@
         <v>0</v>
       </c>
       <c r="AJ11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL11" s="0">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="AN11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="0">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="BI11" s="0">
-        <v>0</v>
+        <v>0.61565839827373114</v>
       </c>
       <c r="BJ11" s="0">
         <v>0</v>
       </c>
       <c r="BK11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL11" s="0">
         <v>0</v>
@@ -2433,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="0">
-        <v>1</v>
+        <v>0.70128284654161921</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="AD12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="0">
         <v>0</v>
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="AJ12" s="0">
-        <v>0</v>
+        <v>0.69279981657604095</v>
       </c>
       <c r="AK12" s="0">
         <v>0</v>
@@ -2508,13 +2508,13 @@
         <v>0</v>
       </c>
       <c r="AM12" s="0">
-        <v>0</v>
+        <v>0.75014425376374461</v>
       </c>
       <c r="AN12" s="0">
         <v>0</v>
       </c>
       <c r="AO12" s="0">
-        <v>0</v>
+        <v>0.70894129024700914</v>
       </c>
       <c r="AP12" s="0">
         <v>0</v>
@@ -2589,7 +2589,7 @@
         <v>0</v>
       </c>
       <c r="BN12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO12" s="0">
         <v>0</v>
@@ -2630,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>0</v>
+        <v>0.73012326293240759</v>
       </c>
       <c r="L13" s="0">
         <v>0</v>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>1</v>
+        <v>0.68308222036693156</v>
       </c>
       <c r="O13" s="0">
         <v>0</v>
@@ -2735,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="AT13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU13" s="0">
         <v>0</v>
@@ -2747,7 +2747,7 @@
         <v>0</v>
       </c>
       <c r="AX13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="0">
         <v>0</v>
@@ -2771,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="BF13" s="0">
-        <v>0</v>
+        <v>0.89217631380460238</v>
       </c>
       <c r="BG13" s="0">
         <v>0</v>
@@ -2792,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="BM13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="0">
         <v>0</v>
@@ -2824,31 +2824,31 @@
         <v>0</v>
       </c>
       <c r="G14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="0">
         <v>0</v>
       </c>
       <c r="J14" s="0">
-        <v>0</v>
+        <v>0.69116486382783959</v>
       </c>
       <c r="K14" s="0">
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>1</v>
+        <v>0.8639012368963066</v>
       </c>
       <c r="M14" s="0">
-        <v>1</v>
+        <v>0.99141467602122535</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>0</v>
+        <v>0.64396057088548209</v>
       </c>
       <c r="P14" s="0">
         <v>0</v>
@@ -2890,7 +2890,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD14" s="0">
         <v>0</v>
@@ -2917,10 +2917,10 @@
         <v>0</v>
       </c>
       <c r="AL14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM14" s="0">
-        <v>0</v>
+        <v>0.92706901796197072</v>
       </c>
       <c r="AN14" s="0">
         <v>0</v>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="BE14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF14" s="0">
         <v>0</v>
@@ -3021,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="0">
-        <v>0</v>
+        <v>0.68141824034460563</v>
       </c>
       <c r="E15" s="0">
         <v>0</v>
@@ -3036,7 +3036,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="0">
-        <v>0</v>
+        <v>0.63577980489087826</v>
       </c>
       <c r="J15" s="0">
         <v>0</v>
@@ -3051,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="0">
-        <v>0</v>
+        <v>0.698939136859418</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
@@ -3078,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X15" s="0">
         <v>0</v>
@@ -3111,7 +3111,7 @@
         <v>0</v>
       </c>
       <c r="AH15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI15" s="0">
         <v>0</v>
@@ -3120,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="AK15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL15" s="0">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="AO15" s="0">
-        <v>0</v>
+        <v>0.6701862190939456</v>
       </c>
       <c r="AP15" s="0">
         <v>0</v>
@@ -3147,13 +3147,13 @@
         <v>0</v>
       </c>
       <c r="AT15" s="0">
-        <v>0</v>
+        <v>0.93056368336890316</v>
       </c>
       <c r="AU15" s="0">
         <v>0</v>
       </c>
       <c r="AV15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW15" s="0">
         <v>0</v>
@@ -3165,7 +3165,7 @@
         <v>0</v>
       </c>
       <c r="AZ15" s="0">
-        <v>0</v>
+        <v>0.799183230407984</v>
       </c>
       <c r="BA15" s="0">
         <v>0</v>
@@ -3177,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="BD15" s="0">
-        <v>0</v>
+        <v>0.57397167801182558</v>
       </c>
       <c r="BE15" s="0">
         <v>0</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="BJ15" s="0">
-        <v>1</v>
+        <v>0.68009378507542184</v>
       </c>
       <c r="BK15" s="0">
         <v>0</v>
@@ -3311,10 +3311,10 @@
         <v>0</v>
       </c>
       <c r="AF16" s="0">
-        <v>0</v>
+        <v>0.64882892655206192</v>
       </c>
       <c r="AG16" s="0">
-        <v>0</v>
+        <v>0.77015646602316989</v>
       </c>
       <c r="AH16" s="0">
         <v>0</v>
@@ -3350,13 +3350,13 @@
         <v>0</v>
       </c>
       <c r="AS16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="0">
         <v>0</v>
       </c>
       <c r="AU16" s="0">
-        <v>0</v>
+        <v>0.51970879664038638</v>
       </c>
       <c r="AV16" s="0">
         <v>0</v>
@@ -3371,7 +3371,7 @@
         <v>0</v>
       </c>
       <c r="AZ16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA16" s="0">
         <v>0</v>
@@ -3401,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="BJ16" s="0">
-        <v>0</v>
+        <v>0.9150867251196515</v>
       </c>
       <c r="BK16" s="0">
         <v>0</v>
@@ -3419,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="BP16" s="0">
-        <v>0</v>
+        <v>0.96225817613710118</v>
       </c>
     </row>
     <row r="17">
@@ -3478,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="S17" s="0">
-        <v>0</v>
+        <v>0.7698552190447927</v>
       </c>
       <c r="T17" s="0">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>0</v>
       </c>
       <c r="V17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W17" s="0">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD17" s="0">
         <v>0</v>
@@ -3541,13 +3541,13 @@
         <v>0</v>
       </c>
       <c r="AN17" s="0">
-        <v>0</v>
+        <v>0.53579154903736192</v>
       </c>
       <c r="AO17" s="0">
         <v>0</v>
       </c>
       <c r="AP17" s="0">
-        <v>0</v>
+        <v>0.90535036652384249</v>
       </c>
       <c r="AQ17" s="0">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="AW17" s="0">
-        <v>0</v>
+        <v>0.57997167018447215</v>
       </c>
       <c r="AX17" s="0">
         <v>0</v>
@@ -3607,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="BJ17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK17" s="0">
         <v>0</v>
@@ -3651,7 +3651,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="0">
         <v>0</v>
@@ -3684,16 +3684,16 @@
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>0</v>
+        <v>0.88983291386486196</v>
       </c>
       <c r="T18" s="0">
-        <v>1</v>
+        <v>0.97038241392971636</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
       </c>
       <c r="V18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W18" s="0">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="AA18" s="0">
-        <v>0</v>
+        <v>0.80454411166495077</v>
       </c>
       <c r="AB18" s="0">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="AE18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF18" s="0">
         <v>0</v>
@@ -3860,7 +3860,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="0">
-        <v>0</v>
+        <v>0.87477449045373068</v>
       </c>
       <c r="J19" s="0">
         <v>0</v>
@@ -3884,19 +3884,19 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>0</v>
+        <v>0.69301196218192007</v>
       </c>
       <c r="R19" s="0">
-        <v>0</v>
+        <v>0.89130154772810877</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>1</v>
+        <v>0.93962495450488115</v>
       </c>
       <c r="U19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" s="0">
         <v>0</v>
@@ -3956,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="AO19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP19" s="0">
         <v>0</v>
@@ -4028,13 +4028,13 @@
         <v>0</v>
       </c>
       <c r="BM19" s="0">
-        <v>0</v>
+        <v>0.80460852914746095</v>
       </c>
       <c r="BN19" s="0">
         <v>0</v>
       </c>
       <c r="BO19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP19" s="0">
         <v>0</v>
@@ -4054,13 +4054,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" s="0">
         <v>0</v>
       </c>
       <c r="G20" s="0">
-        <v>0</v>
+        <v>0.55540165459310997</v>
       </c>
       <c r="H20" s="0">
         <v>0</v>
@@ -4093,10 +4093,10 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>1</v>
+        <v>0.90682582457387784</v>
       </c>
       <c r="S20" s="0">
-        <v>1</v>
+        <v>0.81265372360345212</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
@@ -4108,13 +4108,13 @@
         <v>0</v>
       </c>
       <c r="W20" s="0">
-        <v>0</v>
+        <v>0.54122250411369333</v>
       </c>
       <c r="X20" s="0">
         <v>0</v>
       </c>
       <c r="Y20" s="0">
-        <v>0</v>
+        <v>0.73213758471012258</v>
       </c>
       <c r="Z20" s="0">
         <v>0</v>
@@ -4138,7 +4138,7 @@
         <v>0</v>
       </c>
       <c r="AG20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH20" s="0">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="AL20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM20" s="0">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="AV20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW20" s="0">
         <v>0</v>
@@ -4213,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="BF20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG20" s="0">
         <v>0</v>
@@ -4260,7 +4260,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" s="0">
         <v>0</v>
@@ -4269,7 +4269,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" s="0">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" s="0">
         <v>0</v>
@@ -4314,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4323,7 +4323,7 @@
         <v>0</v>
       </c>
       <c r="Z21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA21" s="0">
         <v>0</v>
@@ -4344,7 +4344,7 @@
         <v>0</v>
       </c>
       <c r="AG21" s="0">
-        <v>0</v>
+        <v>0.6975733301881113</v>
       </c>
       <c r="AH21" s="0">
         <v>0</v>
@@ -4368,7 +4368,7 @@
         <v>0</v>
       </c>
       <c r="AO21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP21" s="0">
         <v>0</v>
@@ -4398,7 +4398,7 @@
         <v>0</v>
       </c>
       <c r="AY21" s="0">
-        <v>0</v>
+        <v>0.76674469075546359</v>
       </c>
       <c r="AZ21" s="0">
         <v>0</v>
@@ -4440,7 +4440,7 @@
         <v>0</v>
       </c>
       <c r="BM21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="0">
         <v>0</v>
@@ -4481,10 +4481,10 @@
         <v>0</v>
       </c>
       <c r="J22" s="0">
-        <v>0</v>
+        <v>0.90148653240421994</v>
       </c>
       <c r="K22" s="0">
-        <v>0</v>
+        <v>0.97749739580224038</v>
       </c>
       <c r="L22" s="0">
         <v>0</v>
@@ -4502,10 +4502,10 @@
         <v>0</v>
       </c>
       <c r="Q22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S22" s="0">
         <v>0</v>
@@ -4529,7 +4529,7 @@
         <v>0</v>
       </c>
       <c r="Z22" s="0">
-        <v>0</v>
+        <v>0.78040350107890766</v>
       </c>
       <c r="AA22" s="0">
         <v>0</v>
@@ -4538,10 +4538,10 @@
         <v>0</v>
       </c>
       <c r="AC22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD22" s="0">
-        <v>0</v>
+        <v>0.88102909086379966</v>
       </c>
       <c r="AE22" s="0">
         <v>0</v>
@@ -4568,7 +4568,7 @@
         <v>0</v>
       </c>
       <c r="AM22" s="0">
-        <v>0</v>
+        <v>0.72651119790562113</v>
       </c>
       <c r="AN22" s="0">
         <v>0</v>
@@ -4577,7 +4577,7 @@
         <v>0</v>
       </c>
       <c r="AP22" s="0">
-        <v>0</v>
+        <v>0.66338650138354938</v>
       </c>
       <c r="AQ22" s="0">
         <v>0</v>
@@ -4619,7 +4619,7 @@
         <v>0</v>
       </c>
       <c r="BD22" s="0">
-        <v>0</v>
+        <v>0.51793977398319213</v>
       </c>
       <c r="BE22" s="0">
         <v>0</v>
@@ -4634,7 +4634,7 @@
         <v>0</v>
       </c>
       <c r="BI22" s="0">
-        <v>0</v>
+        <v>0.54204574427809693</v>
       </c>
       <c r="BJ22" s="0">
         <v>0</v>
@@ -4643,7 +4643,7 @@
         <v>0</v>
       </c>
       <c r="BL22" s="0">
-        <v>0</v>
+        <v>0.74701656089734403</v>
       </c>
       <c r="BM22" s="0">
         <v>0</v>
@@ -4678,7 +4678,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="0">
-        <v>0</v>
+        <v>0.92207673735410445</v>
       </c>
       <c r="H23" s="0">
         <v>0</v>
@@ -4702,7 +4702,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" s="0">
         <v>0</v>
@@ -4717,10 +4717,10 @@
         <v>0</v>
       </c>
       <c r="T23" s="0">
-        <v>0</v>
+        <v>0.66440883216811342</v>
       </c>
       <c r="U23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23" s="0">
         <v>0</v>
@@ -4738,7 +4738,7 @@
         <v>0</v>
       </c>
       <c r="AA23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB23" s="0">
         <v>0</v>
@@ -4747,7 +4747,7 @@
         <v>0</v>
       </c>
       <c r="AD23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="0">
         <v>0</v>
@@ -4759,13 +4759,13 @@
         <v>0</v>
       </c>
       <c r="AH23" s="0">
-        <v>1</v>
+        <v>0.54632915813003302</v>
       </c>
       <c r="AI23" s="0">
         <v>0</v>
       </c>
       <c r="AJ23" s="0">
-        <v>0</v>
+        <v>0.7453664911418979</v>
       </c>
       <c r="AK23" s="0">
         <v>0</v>
@@ -4774,7 +4774,7 @@
         <v>0</v>
       </c>
       <c r="AM23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN23" s="0">
         <v>0</v>
@@ -4965,19 +4965,19 @@
         <v>0</v>
       </c>
       <c r="AH24" s="0">
-        <v>0</v>
+        <v>0.99486654975276845</v>
       </c>
       <c r="AI24" s="0">
         <v>0</v>
       </c>
       <c r="AJ24" s="0">
-        <v>0</v>
+        <v>0.97317890224125481</v>
       </c>
       <c r="AK24" s="0">
         <v>0</v>
       </c>
       <c r="AL24" s="0">
-        <v>0</v>
+        <v>0.61400853957264934</v>
       </c>
       <c r="AM24" s="0">
         <v>0</v>
@@ -4989,16 +4989,16 @@
         <v>0</v>
       </c>
       <c r="AP24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ24" s="0">
         <v>0</v>
       </c>
       <c r="AR24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS24" s="0">
-        <v>0</v>
+        <v>0.73020377043260964</v>
       </c>
       <c r="AT24" s="0">
         <v>0</v>
@@ -5031,7 +5031,7 @@
         <v>0</v>
       </c>
       <c r="BD24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE24" s="0">
         <v>0</v>
@@ -5067,7 +5067,7 @@
         <v>0</v>
       </c>
       <c r="BP24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -5087,13 +5087,13 @@
         <v>0</v>
       </c>
       <c r="F25" s="0">
-        <v>0</v>
+        <v>0.55196463481898395</v>
       </c>
       <c r="G25" s="0">
         <v>0</v>
       </c>
       <c r="H25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" s="0">
         <v>0</v>
@@ -5129,7 +5129,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="0">
-        <v>0</v>
+        <v>0.71586076565759582</v>
       </c>
       <c r="U25" s="0">
         <v>0</v>
@@ -5150,7 +5150,7 @@
         <v>0</v>
       </c>
       <c r="AA25" s="0">
-        <v>0</v>
+        <v>0.93450590437568271</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5183,7 +5183,7 @@
         <v>0</v>
       </c>
       <c r="AL25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM25" s="0">
         <v>0</v>
@@ -5270,7 +5270,7 @@
         <v>0</v>
       </c>
       <c r="BO25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP25" s="0">
         <v>0</v>
@@ -5293,7 +5293,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="0">
-        <v>0</v>
+        <v>0.81345373379701247</v>
       </c>
       <c r="G26" s="0">
         <v>0</v>
@@ -5305,7 +5305,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" s="0">
         <v>0</v>
@@ -5338,10 +5338,10 @@
         <v>0</v>
       </c>
       <c r="U26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V26" s="0">
-        <v>0</v>
+        <v>0.50927782020838697</v>
       </c>
       <c r="W26" s="0">
         <v>0</v>
@@ -5383,7 +5383,7 @@
         <v>0</v>
       </c>
       <c r="AJ26" s="0">
-        <v>0</v>
+        <v>0.86682394065593282</v>
       </c>
       <c r="AK26" s="0">
         <v>0</v>
@@ -5455,7 +5455,7 @@
         <v>0</v>
       </c>
       <c r="BH26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="0">
         <v>0</v>
@@ -5464,7 +5464,7 @@
         <v>0</v>
       </c>
       <c r="BK26" s="0">
-        <v>0</v>
+        <v>0.5756589746247639</v>
       </c>
       <c r="BL26" s="0">
         <v>0</v>
@@ -5535,7 +5535,7 @@
         <v>0</v>
       </c>
       <c r="R27" s="0">
-        <v>0</v>
+        <v>0.74291589612816067</v>
       </c>
       <c r="S27" s="0">
         <v>0</v>
@@ -5550,13 +5550,13 @@
         <v>0</v>
       </c>
       <c r="W27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X27" s="0">
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>0</v>
+        <v>0.59860922983078857</v>
       </c>
       <c r="Z27" s="0">
         <v>0</v>
@@ -5574,7 +5574,7 @@
         <v>0</v>
       </c>
       <c r="AE27" s="0">
-        <v>0</v>
+        <v>0.87137755021320284</v>
       </c>
       <c r="AF27" s="0">
         <v>0</v>
@@ -5592,10 +5592,10 @@
         <v>0</v>
       </c>
       <c r="AK27" s="0">
-        <v>0</v>
+        <v>0.60771027144794143</v>
       </c>
       <c r="AL27" s="0">
-        <v>0</v>
+        <v>0.79156191538087806</v>
       </c>
       <c r="AM27" s="0">
         <v>0</v>
@@ -5610,7 +5610,7 @@
         <v>0</v>
       </c>
       <c r="AQ27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR27" s="0">
         <v>0</v>
@@ -5685,7 +5685,7 @@
         <v>0</v>
       </c>
       <c r="BP27" s="0">
-        <v>0</v>
+        <v>0.78334750575725431</v>
       </c>
     </row>
     <row r="28">
@@ -5777,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="AD28" s="0">
-        <v>0</v>
+        <v>0.97745787816994811</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5852,7 +5852,7 @@
         <v>0</v>
       </c>
       <c r="BC28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD28" s="0">
         <v>0</v>
@@ -5867,7 +5867,7 @@
         <v>0</v>
       </c>
       <c r="BH28" s="0">
-        <v>1</v>
+        <v>0.55021516764966738</v>
       </c>
       <c r="BI28" s="0">
         <v>0</v>
@@ -5891,12 +5891,12 @@
         <v>0</v>
       </c>
       <c r="BP28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0</v>
+        <v>0.66207240043915927</v>
       </c>
       <c r="B29" s="0">
         <v>0</v>
@@ -5935,7 +5935,7 @@
         <v>0</v>
       </c>
       <c r="N29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29" s="0">
         <v>0</v>
@@ -5944,7 +5944,7 @@
         <v>0</v>
       </c>
       <c r="Q29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R29" s="0">
         <v>0</v>
@@ -5959,7 +5959,7 @@
         <v>0</v>
       </c>
       <c r="V29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W29" s="0">
         <v>0</v>
@@ -5983,10 +5983,10 @@
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>0</v>
+        <v>0.71696032150208477</v>
       </c>
       <c r="AE29" s="0">
-        <v>0</v>
+        <v>0.93799904224796427</v>
       </c>
       <c r="AF29" s="0">
         <v>0</v>
@@ -6105,7 +6105,7 @@
         <v>0</v>
       </c>
       <c r="B30" s="0">
-        <v>0</v>
+        <v>0.62190622235786064</v>
       </c>
       <c r="C30" s="0">
         <v>0</v>
@@ -6135,7 +6135,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30" s="0">
         <v>0</v>
@@ -6165,10 +6165,10 @@
         <v>0</v>
       </c>
       <c r="V30" s="0">
-        <v>0</v>
+        <v>0.8934064589303341</v>
       </c>
       <c r="W30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X30" s="0">
         <v>0</v>
@@ -6183,10 +6183,10 @@
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>0</v>
+        <v>0.61395215946982029</v>
       </c>
       <c r="AC30" s="0">
-        <v>0</v>
+        <v>0.73507300955594201</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
@@ -6198,7 +6198,7 @@
         <v>0</v>
       </c>
       <c r="AG30" s="0">
-        <v>0</v>
+        <v>0.72881171473062967</v>
       </c>
       <c r="AH30" s="0">
         <v>0</v>
@@ -6219,7 +6219,7 @@
         <v>0</v>
       </c>
       <c r="AN30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO30" s="0">
         <v>0</v>
@@ -6237,7 +6237,7 @@
         <v>0</v>
       </c>
       <c r="AT30" s="0">
-        <v>0</v>
+        <v>0.73500559231499474</v>
       </c>
       <c r="AU30" s="0">
         <v>0</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="AW30" s="0">
-        <v>0</v>
+        <v>0.73582903405473632</v>
       </c>
       <c r="AX30" s="0">
         <v>0</v>
@@ -6261,7 +6261,7 @@
         <v>0</v>
       </c>
       <c r="BB30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC30" s="0">
         <v>0</v>
@@ -6317,13 +6317,13 @@
         <v>0</v>
       </c>
       <c r="D31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" s="0">
         <v>0</v>
       </c>
       <c r="F31" s="0">
-        <v>0</v>
+        <v>0.87270707308456319</v>
       </c>
       <c r="G31" s="0">
         <v>0</v>
@@ -6359,7 +6359,7 @@
         <v>0</v>
       </c>
       <c r="R31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S31" s="0">
         <v>0</v>
@@ -6386,13 +6386,13 @@
         <v>0</v>
       </c>
       <c r="AA31" s="0">
-        <v>0</v>
+        <v>0.62998111069098495</v>
       </c>
       <c r="AB31" s="0">
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>0</v>
+        <v>0.54345762957415156</v>
       </c>
       <c r="AD31" s="0">
         <v>0</v>
@@ -6473,13 +6473,13 @@
         <v>0</v>
       </c>
       <c r="BD31" s="0">
-        <v>0</v>
+        <v>0.65741486495221291</v>
       </c>
       <c r="BE31" s="0">
         <v>0</v>
       </c>
       <c r="BF31" s="0">
-        <v>1</v>
+        <v>0.85684781351592543</v>
       </c>
       <c r="BG31" s="0">
         <v>0</v>
@@ -6514,7 +6514,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B32" s="0">
         <v>0</v>
@@ -6538,7 +6538,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" s="0">
         <v>0</v>
@@ -6559,7 +6559,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="0">
-        <v>0</v>
+        <v>0.6168036826804979</v>
       </c>
       <c r="Q32" s="0">
         <v>0</v>
@@ -6628,13 +6628,13 @@
         <v>0</v>
       </c>
       <c r="AM32" s="0">
-        <v>1</v>
+        <v>0.59841940719514519</v>
       </c>
       <c r="AN32" s="0">
         <v>0</v>
       </c>
       <c r="AO32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP32" s="0">
         <v>0</v>
@@ -6676,7 +6676,7 @@
         <v>0</v>
       </c>
       <c r="BC32" s="0">
-        <v>0</v>
+        <v>0.9568922565180491</v>
       </c>
       <c r="BD32" s="0">
         <v>0</v>
@@ -6685,7 +6685,7 @@
         <v>0</v>
       </c>
       <c r="BF32" s="0">
-        <v>0</v>
+        <v>0.73732917809207243</v>
       </c>
       <c r="BG32" s="0">
         <v>0</v>
@@ -6765,7 +6765,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="0">
-        <v>0</v>
+        <v>0.84707728733676513</v>
       </c>
       <c r="Q33" s="0">
         <v>0</v>
@@ -6777,10 +6777,10 @@
         <v>0</v>
       </c>
       <c r="T33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U33" s="0">
-        <v>0</v>
+        <v>0.95913251337339278</v>
       </c>
       <c r="V33" s="0">
         <v>0</v>
@@ -6807,7 +6807,7 @@
         <v>0</v>
       </c>
       <c r="AD33" s="0">
-        <v>0</v>
+        <v>0.70253893283850677</v>
       </c>
       <c r="AE33" s="0">
         <v>0</v>
@@ -6855,7 +6855,7 @@
         <v>0</v>
       </c>
       <c r="AT33" s="0">
-        <v>0</v>
+        <v>0.50076652729551174</v>
       </c>
       <c r="AU33" s="0">
         <v>0</v>
@@ -6870,7 +6870,7 @@
         <v>0</v>
       </c>
       <c r="AY33" s="0">
-        <v>0</v>
+        <v>0.88494151785392794</v>
       </c>
       <c r="AZ33" s="0">
         <v>0</v>
@@ -6885,7 +6885,7 @@
         <v>0</v>
       </c>
       <c r="BD33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE33" s="0">
         <v>0</v>
@@ -6912,7 +6912,7 @@
         <v>0</v>
       </c>
       <c r="BM33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN33" s="0">
         <v>0</v>
@@ -6941,13 +6941,13 @@
         <v>0</v>
       </c>
       <c r="F34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" s="0">
         <v>0</v>
       </c>
       <c r="H34" s="0">
-        <v>0</v>
+        <v>0.59463262800427363</v>
       </c>
       <c r="I34" s="0">
         <v>0</v>
@@ -6968,7 +6968,7 @@
         <v>0</v>
       </c>
       <c r="O34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" s="0">
         <v>0</v>
@@ -6992,10 +6992,10 @@
         <v>0</v>
       </c>
       <c r="W34" s="0">
-        <v>1</v>
+        <v>0.54496433156827784</v>
       </c>
       <c r="X34" s="0">
-        <v>0</v>
+        <v>0.78075055618227951</v>
       </c>
       <c r="Y34" s="0">
         <v>0</v>
@@ -7058,7 +7058,7 @@
         <v>0</v>
       </c>
       <c r="AS34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT34" s="0">
         <v>0</v>
@@ -7073,7 +7073,7 @@
         <v>0</v>
       </c>
       <c r="AX34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY34" s="0">
         <v>0</v>
@@ -7109,7 +7109,7 @@
         <v>0</v>
       </c>
       <c r="BJ34" s="0">
-        <v>0</v>
+        <v>0.59282667549271506</v>
       </c>
       <c r="BK34" s="0">
         <v>0</v>
@@ -7147,7 +7147,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" s="0">
         <v>0</v>
@@ -7237,7 +7237,7 @@
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>0</v>
+        <v>0.77071551760155388</v>
       </c>
       <c r="AK35" s="0">
         <v>0</v>
@@ -7294,7 +7294,7 @@
         <v>0</v>
       </c>
       <c r="BC35" s="0">
-        <v>1</v>
+        <v>0.77431455966012463</v>
       </c>
       <c r="BD35" s="0">
         <v>0</v>
@@ -7318,7 +7318,7 @@
         <v>0</v>
       </c>
       <c r="BK35" s="0">
-        <v>0</v>
+        <v>0.9731698605414334</v>
       </c>
       <c r="BL35" s="0">
         <v>0</v>
@@ -7368,10 +7368,10 @@
         <v>0</v>
       </c>
       <c r="K36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36" s="0">
-        <v>0</v>
+        <v>0.85907011383312915</v>
       </c>
       <c r="M36" s="0">
         <v>0</v>
@@ -7404,16 +7404,16 @@
         <v>0</v>
       </c>
       <c r="W36" s="0">
-        <v>0</v>
+        <v>0.85019374560942207</v>
       </c>
       <c r="X36" s="0">
-        <v>0</v>
+        <v>0.72490653943703931</v>
       </c>
       <c r="Y36" s="0">
         <v>0</v>
       </c>
       <c r="Z36" s="0">
-        <v>0</v>
+        <v>0.51850266171079484</v>
       </c>
       <c r="AA36" s="0">
         <v>0</v>
@@ -7440,7 +7440,7 @@
         <v>0</v>
       </c>
       <c r="AI36" s="0">
-        <v>0</v>
+        <v>0.86915705698909163</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
@@ -7473,7 +7473,7 @@
         <v>0</v>
       </c>
       <c r="AT36" s="0">
-        <v>0</v>
+        <v>0.74606854928868205</v>
       </c>
       <c r="AU36" s="0">
         <v>0</v>
@@ -7509,7 +7509,7 @@
         <v>0</v>
       </c>
       <c r="BF36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG36" s="0">
         <v>0</v>
@@ -7574,7 +7574,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37" s="0">
         <v>0</v>
@@ -7586,7 +7586,7 @@
         <v>0</v>
       </c>
       <c r="O37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37" s="0">
         <v>0</v>
@@ -7622,7 +7622,7 @@
         <v>0</v>
       </c>
       <c r="AA37" s="0">
-        <v>0</v>
+        <v>0.92522662392404298</v>
       </c>
       <c r="AB37" s="0">
         <v>0</v>
@@ -7655,13 +7655,13 @@
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>0</v>
+        <v>0.61621746811526767</v>
       </c>
       <c r="AM37" s="0">
         <v>0</v>
       </c>
       <c r="AN37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO37" s="0">
         <v>0</v>
@@ -7682,7 +7682,7 @@
         <v>0</v>
       </c>
       <c r="AU37" s="0">
-        <v>0</v>
+        <v>0.59726146971231686</v>
       </c>
       <c r="AV37" s="0">
         <v>0</v>
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="AX37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY37" s="0">
         <v>0</v>
@@ -7724,7 +7724,7 @@
         <v>0</v>
       </c>
       <c r="BI37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ37" s="0">
         <v>0</v>
@@ -7736,7 +7736,7 @@
         <v>0</v>
       </c>
       <c r="BM37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN37" s="0">
         <v>0</v>
@@ -7753,7 +7753,7 @@
         <v>0</v>
       </c>
       <c r="B38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" s="0">
         <v>0</v>
@@ -7789,7 +7789,7 @@
         <v>0</v>
       </c>
       <c r="N38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O38" s="0">
         <v>0</v>
@@ -7807,7 +7807,7 @@
         <v>0</v>
       </c>
       <c r="T38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U38" s="0">
         <v>0</v>
@@ -7819,16 +7819,16 @@
         <v>0</v>
       </c>
       <c r="X38" s="0">
-        <v>0</v>
+        <v>0.79676766481033645</v>
       </c>
       <c r="Y38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z38" s="0">
         <v>0</v>
       </c>
       <c r="AA38" s="0">
-        <v>0</v>
+        <v>0.84067170633062982</v>
       </c>
       <c r="AB38" s="0">
         <v>0</v>
@@ -7858,7 +7858,7 @@
         <v>0</v>
       </c>
       <c r="AK38" s="0">
-        <v>0</v>
+        <v>0.72521684719445512</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
@@ -7906,10 +7906,10 @@
         <v>0</v>
       </c>
       <c r="BA38" s="0">
-        <v>0</v>
+        <v>0.82301672940141468</v>
       </c>
       <c r="BB38" s="0">
-        <v>0</v>
+        <v>0.52783684695617095</v>
       </c>
       <c r="BC38" s="0">
         <v>0</v>
@@ -7968,13 +7968,13 @@
         <v>0</v>
       </c>
       <c r="E39" s="0">
-        <v>0</v>
+        <v>0.9725121859528959</v>
       </c>
       <c r="F39" s="0">
         <v>0</v>
       </c>
       <c r="G39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" s="0">
         <v>0</v>
@@ -7989,13 +7989,13 @@
         <v>0</v>
       </c>
       <c r="L39" s="0">
-        <v>0</v>
+        <v>0.63005564233355615</v>
       </c>
       <c r="M39" s="0">
         <v>0</v>
       </c>
       <c r="N39" s="0">
-        <v>0</v>
+        <v>0.94020400269072191</v>
       </c>
       <c r="O39" s="0">
         <v>0</v>
@@ -8019,10 +8019,10 @@
         <v>0</v>
       </c>
       <c r="V39" s="0">
-        <v>0</v>
+        <v>0.95799480335733933</v>
       </c>
       <c r="W39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X39" s="0">
         <v>0</v>
@@ -8049,7 +8049,7 @@
         <v>0</v>
       </c>
       <c r="AF39" s="0">
-        <v>1</v>
+        <v>0.98367627497105625</v>
       </c>
       <c r="AG39" s="0">
         <v>0</v>
@@ -8133,7 +8133,7 @@
         <v>0</v>
       </c>
       <c r="BH39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI39" s="0">
         <v>0</v>
@@ -8145,7 +8145,7 @@
         <v>0</v>
       </c>
       <c r="BL39" s="0">
-        <v>0</v>
+        <v>0.63260162408889298</v>
       </c>
       <c r="BM39" s="0">
         <v>0</v>
@@ -8168,7 +8168,7 @@
         <v>0</v>
       </c>
       <c r="C40" s="0">
-        <v>0</v>
+        <v>0.80726888363099336</v>
       </c>
       <c r="D40" s="0">
         <v>0</v>
@@ -8189,10 +8189,10 @@
         <v>0</v>
       </c>
       <c r="J40" s="0">
-        <v>0</v>
+        <v>0.95922751645924076</v>
       </c>
       <c r="K40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" s="0">
         <v>0</v>
@@ -8210,7 +8210,7 @@
         <v>0</v>
       </c>
       <c r="Q40" s="0">
-        <v>0</v>
+        <v>0.5339046386254791</v>
       </c>
       <c r="R40" s="0">
         <v>0</v>
@@ -8249,7 +8249,7 @@
         <v>0</v>
       </c>
       <c r="AD40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE40" s="0">
         <v>0</v>
@@ -8270,7 +8270,7 @@
         <v>0</v>
       </c>
       <c r="AK40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL40" s="0">
         <v>0</v>
@@ -8285,13 +8285,13 @@
         <v>0</v>
       </c>
       <c r="AP40" s="0">
-        <v>0</v>
+        <v>0.89048588758184843</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
       </c>
       <c r="AR40" s="0">
-        <v>0</v>
+        <v>0.79946905799973722</v>
       </c>
       <c r="AS40" s="0">
         <v>0</v>
@@ -8303,7 +8303,7 @@
         <v>0</v>
       </c>
       <c r="AV40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW40" s="0">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="AZ40" s="0">
-        <v>0</v>
+        <v>0.59086258932581326</v>
       </c>
       <c r="BA40" s="0">
         <v>0</v>
@@ -8401,7 +8401,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="0">
-        <v>0</v>
+        <v>0.77982091963826494</v>
       </c>
       <c r="M41" s="0">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>0</v>
       </c>
       <c r="O41" s="0">
-        <v>0</v>
+        <v>0.96510653930901569</v>
       </c>
       <c r="P41" s="0">
         <v>0</v>
@@ -8422,13 +8422,13 @@
         <v>0</v>
       </c>
       <c r="S41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T41" s="0">
         <v>0</v>
       </c>
       <c r="U41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V41" s="0">
         <v>0</v>
@@ -8461,7 +8461,7 @@
         <v>0</v>
       </c>
       <c r="AF41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG41" s="0">
         <v>0</v>
@@ -8509,7 +8509,7 @@
         <v>0</v>
       </c>
       <c r="AV41" s="0">
-        <v>0</v>
+        <v>0.95320071873651835</v>
       </c>
       <c r="AW41" s="0">
         <v>0</v>
@@ -8601,7 +8601,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" s="0">
         <v>0</v>
@@ -8622,7 +8622,7 @@
         <v>0</v>
       </c>
       <c r="Q42" s="0">
-        <v>0</v>
+        <v>0.89614133579800836</v>
       </c>
       <c r="R42" s="0">
         <v>0</v>
@@ -8637,13 +8637,13 @@
         <v>0</v>
       </c>
       <c r="V42" s="0">
-        <v>0</v>
+        <v>0.79557682299644106</v>
       </c>
       <c r="W42" s="0">
         <v>0</v>
       </c>
       <c r="X42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y42" s="0">
         <v>0</v>
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>0</v>
+        <v>0.83786574290175264</v>
       </c>
       <c r="AO42" s="0">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>0</v>
       </c>
       <c r="BG42" s="0">
-        <v>0</v>
+        <v>0.91347513687437731</v>
       </c>
       <c r="BH42" s="0">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="0">
-        <v>1</v>
+        <v>0.874992001613762</v>
       </c>
       <c r="F43" s="0">
         <v>0</v>
@@ -8858,7 +8858,7 @@
         <v>0</v>
       </c>
       <c r="AA43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB43" s="0">
         <v>0</v>
@@ -8909,13 +8909,13 @@
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS43" s="0">
         <v>0</v>
       </c>
       <c r="AT43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU43" s="0">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="AW43" s="0">
-        <v>0</v>
+        <v>0.57085343659663201</v>
       </c>
       <c r="AX43" s="0">
         <v>0</v>
@@ -8986,7 +8986,7 @@
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0</v>
+        <v>0.8873312886028093</v>
       </c>
       <c r="B44" s="0">
         <v>0</v>
@@ -8995,7 +8995,7 @@
         <v>0</v>
       </c>
       <c r="D44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" s="0">
         <v>0</v>
@@ -9007,7 +9007,7 @@
         <v>0</v>
       </c>
       <c r="H44" s="0">
-        <v>0</v>
+        <v>0.74536481675458954</v>
       </c>
       <c r="I44" s="0">
         <v>0</v>
@@ -9055,7 +9055,7 @@
         <v>0</v>
       </c>
       <c r="X44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y44" s="0">
         <v>0</v>
@@ -9103,7 +9103,7 @@
         <v>0</v>
       </c>
       <c r="AN44" s="0">
-        <v>0</v>
+        <v>0.70719848925563067</v>
       </c>
       <c r="AO44" s="0">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>0</v>
       </c>
       <c r="AQ44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
@@ -9121,7 +9121,7 @@
         <v>0</v>
       </c>
       <c r="AT44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9130,7 +9130,7 @@
         <v>0</v>
       </c>
       <c r="AW44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX44" s="0">
         <v>0</v>
@@ -9139,7 +9139,7 @@
         <v>0</v>
       </c>
       <c r="AZ44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA44" s="0">
         <v>0</v>
@@ -9181,13 +9181,13 @@
         <v>0</v>
       </c>
       <c r="BN44" s="0">
-        <v>0</v>
+        <v>0.99013952346325129</v>
       </c>
       <c r="BO44" s="0">
         <v>0</v>
       </c>
       <c r="BP44" s="0">
-        <v>0</v>
+        <v>0.75353046124296319</v>
       </c>
     </row>
     <row r="45">
@@ -9207,7 +9207,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="0">
-        <v>0</v>
+        <v>0.56252903555928291</v>
       </c>
       <c r="G45" s="0">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="P45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="0">
         <v>0</v>
@@ -9261,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="X45" s="0">
-        <v>0</v>
+        <v>0.90153100348584136</v>
       </c>
       <c r="Y45" s="0">
         <v>0</v>
@@ -9291,7 +9291,7 @@
         <v>0</v>
       </c>
       <c r="AH45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI45" s="0">
         <v>0</v>
@@ -9345,7 +9345,7 @@
         <v>0</v>
       </c>
       <c r="AZ45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA45" s="0">
         <v>0</v>
@@ -9384,7 +9384,7 @@
         <v>0</v>
       </c>
       <c r="BM45" s="0">
-        <v>0</v>
+        <v>0.89471522251771907</v>
       </c>
       <c r="BN45" s="0">
         <v>0</v>
@@ -9434,13 +9434,13 @@
         <v>0</v>
       </c>
       <c r="M46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N46" s="0">
         <v>0</v>
       </c>
       <c r="O46" s="0">
-        <v>0</v>
+        <v>0.82952756195092747</v>
       </c>
       <c r="P46" s="0">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>0</v>
       </c>
       <c r="AD46" s="0">
-        <v>0</v>
+        <v>0.71523401953736077</v>
       </c>
       <c r="AE46" s="0">
         <v>0</v>
@@ -9494,7 +9494,7 @@
         <v>0</v>
       </c>
       <c r="AG46" s="0">
-        <v>0</v>
+        <v>0.66871030155249134</v>
       </c>
       <c r="AH46" s="0">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="AJ46" s="0">
-        <v>0</v>
+        <v>0.87993834713845609</v>
       </c>
       <c r="AK46" s="0">
         <v>0</v>
@@ -9524,10 +9524,10 @@
         <v>0</v>
       </c>
       <c r="AQ46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS46" s="0">
         <v>0</v>
@@ -9542,7 +9542,7 @@
         <v>0</v>
       </c>
       <c r="AW46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX46" s="0">
         <v>0</v>
@@ -9557,7 +9557,7 @@
         <v>0</v>
       </c>
       <c r="BB46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC46" s="0">
         <v>0</v>
@@ -9599,7 +9599,7 @@
         <v>0</v>
       </c>
       <c r="BP46" s="0">
-        <v>0</v>
+        <v>0.51948796021091792</v>
       </c>
     </row>
     <row r="47">
@@ -9607,7 +9607,7 @@
         <v>0</v>
       </c>
       <c r="B47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" s="0">
         <v>0</v>
@@ -9649,7 +9649,7 @@
         <v>0</v>
       </c>
       <c r="P47" s="0">
-        <v>0</v>
+        <v>0.70424565895922697</v>
       </c>
       <c r="Q47" s="0">
         <v>0</v>
@@ -9712,7 +9712,7 @@
         <v>0</v>
       </c>
       <c r="AK47" s="0">
-        <v>0</v>
+        <v>0.61909349029360916</v>
       </c>
       <c r="AL47" s="0">
         <v>0</v>
@@ -9748,7 +9748,7 @@
         <v>0</v>
       </c>
       <c r="AW47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9805,7 +9805,7 @@
         <v>0</v>
       </c>
       <c r="BP47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -9813,7 +9813,7 @@
         <v>0</v>
       </c>
       <c r="B48" s="0">
-        <v>0</v>
+        <v>0.60400896685618943</v>
       </c>
       <c r="C48" s="0">
         <v>0</v>
@@ -9852,7 +9852,7 @@
         <v>0</v>
       </c>
       <c r="O48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P48" s="0">
         <v>0</v>
@@ -9867,7 +9867,7 @@
         <v>0</v>
       </c>
       <c r="T48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U48" s="0">
         <v>0</v>
@@ -9927,10 +9927,10 @@
         <v>0</v>
       </c>
       <c r="AN48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO48" s="0">
-        <v>0</v>
+        <v>0.69266077278769755</v>
       </c>
       <c r="AP48" s="0">
         <v>0</v>
@@ -9978,7 +9978,7 @@
         <v>0</v>
       </c>
       <c r="BE48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF48" s="0">
         <v>0</v>
@@ -10008,7 +10008,7 @@
         <v>0</v>
       </c>
       <c r="BO48" s="0">
-        <v>0</v>
+        <v>0.92704040700953061</v>
       </c>
       <c r="BP48" s="0">
         <v>0</v>
@@ -10064,7 +10064,7 @@
         <v>0</v>
       </c>
       <c r="Q49" s="0">
-        <v>0</v>
+        <v>0.99907130047479464</v>
       </c>
       <c r="R49" s="0">
         <v>0</v>
@@ -10103,7 +10103,7 @@
         <v>0</v>
       </c>
       <c r="AD49" s="0">
-        <v>0</v>
+        <v>0.77357583846004807</v>
       </c>
       <c r="AE49" s="0">
         <v>0</v>
@@ -10142,19 +10142,19 @@
         <v>0</v>
       </c>
       <c r="AQ49" s="0">
-        <v>0</v>
+        <v>0.57222387731084812</v>
       </c>
       <c r="AR49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS49" s="0">
         <v>0</v>
       </c>
       <c r="AT49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV49" s="0">
         <v>0</v>
@@ -10175,7 +10175,7 @@
         <v>0</v>
       </c>
       <c r="BB49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC49" s="0">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>0</v>
       </c>
       <c r="BG49" s="0">
-        <v>0</v>
+        <v>0.88992485965871282</v>
       </c>
       <c r="BH49" s="0">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="BN49" s="0">
-        <v>0</v>
+        <v>0.83349610387133222</v>
       </c>
       <c r="BO49" s="0">
         <v>0</v>
@@ -10222,10 +10222,10 @@
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B50" s="0">
-        <v>0</v>
+        <v>0.60407518722882969</v>
       </c>
       <c r="C50" s="0">
         <v>0</v>
@@ -10258,7 +10258,7 @@
         <v>0</v>
       </c>
       <c r="M50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N50" s="0">
         <v>0</v>
@@ -10321,7 +10321,7 @@
         <v>0</v>
       </c>
       <c r="AH50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI50" s="0">
         <v>0</v>
@@ -10330,7 +10330,7 @@
         <v>0</v>
       </c>
       <c r="AK50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL50" s="0">
         <v>0</v>
@@ -10378,19 +10378,19 @@
         <v>0</v>
       </c>
       <c r="BA50" s="0">
-        <v>1</v>
+        <v>0.55691819677024057</v>
       </c>
       <c r="BB50" s="0">
         <v>0</v>
       </c>
       <c r="BC50" s="0">
-        <v>0</v>
+        <v>0.53181574399063047</v>
       </c>
       <c r="BD50" s="0">
         <v>0</v>
       </c>
       <c r="BE50" s="0">
-        <v>0</v>
+        <v>0.93993196524047007</v>
       </c>
       <c r="BF50" s="0">
         <v>0</v>
@@ -10437,7 +10437,7 @@
         <v>0</v>
       </c>
       <c r="D51" s="0">
-        <v>0</v>
+        <v>0.52568910943127167</v>
       </c>
       <c r="E51" s="0">
         <v>0</v>
@@ -10488,7 +10488,7 @@
         <v>0</v>
       </c>
       <c r="U51" s="0">
-        <v>0</v>
+        <v>0.83080552707597111</v>
       </c>
       <c r="V51" s="0">
         <v>0</v>
@@ -10524,7 +10524,7 @@
         <v>0</v>
       </c>
       <c r="AG51" s="0">
-        <v>0</v>
+        <v>0.50836238210509532</v>
       </c>
       <c r="AH51" s="0">
         <v>0</v>
@@ -10581,7 +10581,7 @@
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA51" s="0">
         <v>0</v>
@@ -10590,7 +10590,7 @@
         <v>0</v>
       </c>
       <c r="BC51" s="0">
-        <v>0</v>
+        <v>0.54870181623191294</v>
       </c>
       <c r="BD51" s="0">
         <v>0</v>
@@ -10620,7 +10620,7 @@
         <v>0</v>
       </c>
       <c r="BM51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN51" s="0">
         <v>0</v>
@@ -10676,10 +10676,10 @@
         <v>0</v>
       </c>
       <c r="O52" s="0">
-        <v>0</v>
+        <v>0.89548254298502639</v>
       </c>
       <c r="P52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="0">
         <v>0</v>
@@ -10751,7 +10751,7 @@
         <v>0</v>
       </c>
       <c r="AN52" s="0">
-        <v>0</v>
+        <v>0.68840737541776997</v>
       </c>
       <c r="AO52" s="0">
         <v>0</v>
@@ -10763,10 +10763,10 @@
         <v>0</v>
       </c>
       <c r="AR52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT52" s="0">
         <v>0</v>
@@ -10784,13 +10784,13 @@
         <v>0</v>
       </c>
       <c r="AY52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>1</v>
+        <v>0.63043566256223182</v>
       </c>
       <c r="BB52" s="0">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="C53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" s="0">
         <v>0</v>
@@ -10951,7 +10951,7 @@
         <v>0</v>
       </c>
       <c r="AL53" s="0">
-        <v>0</v>
+        <v>0.99406888606006483</v>
       </c>
       <c r="AM53" s="0">
         <v>0</v>
@@ -10987,13 +10987,13 @@
         <v>0</v>
       </c>
       <c r="AX53" s="0">
-        <v>1</v>
+        <v>0.53186300655035579</v>
       </c>
       <c r="AY53" s="0">
         <v>0</v>
       </c>
       <c r="AZ53" s="0">
-        <v>1</v>
+        <v>0.5252094561827001</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
@@ -11002,13 +11002,13 @@
         <v>0</v>
       </c>
       <c r="BC53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD53" s="0">
         <v>0</v>
       </c>
       <c r="BE53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF53" s="0">
         <v>0</v>
@@ -11026,7 +11026,7 @@
         <v>0</v>
       </c>
       <c r="BK53" s="0">
-        <v>0</v>
+        <v>0.84754890568429708</v>
       </c>
       <c r="BL53" s="0">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="AD54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE54" s="0">
         <v>0</v>
@@ -11157,7 +11157,7 @@
         <v>0</v>
       </c>
       <c r="AL54" s="0">
-        <v>0</v>
+        <v>0.58722520763365349</v>
       </c>
       <c r="AM54" s="0">
         <v>0</v>
@@ -11181,7 +11181,7 @@
         <v>0</v>
       </c>
       <c r="AT54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU54" s="0">
         <v>0</v>
@@ -11190,7 +11190,7 @@
         <v>0</v>
       </c>
       <c r="AW54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX54" s="0">
         <v>0</v>
@@ -11211,7 +11211,7 @@
         <v>0</v>
       </c>
       <c r="BD54" s="0">
-        <v>0</v>
+        <v>0.68480943022084861</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11244,7 +11244,7 @@
         <v>0</v>
       </c>
       <c r="BO54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP54" s="0">
         <v>0</v>
@@ -11276,7 +11276,7 @@
         <v>0</v>
       </c>
       <c r="I55" s="0">
-        <v>1</v>
+        <v>0.79175980069536789</v>
       </c>
       <c r="J55" s="0">
         <v>0</v>
@@ -11333,7 +11333,7 @@
         <v>0</v>
       </c>
       <c r="AB55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC55" s="0">
         <v>0</v>
@@ -11345,7 +11345,7 @@
         <v>0</v>
       </c>
       <c r="AF55" s="0">
-        <v>0</v>
+        <v>0.70996961009308079</v>
       </c>
       <c r="AG55" s="0">
         <v>0</v>
@@ -11354,7 +11354,7 @@
         <v>0</v>
       </c>
       <c r="AI55" s="0">
-        <v>1</v>
+        <v>0.78105383681121354</v>
       </c>
       <c r="AJ55" s="0">
         <v>0</v>
@@ -11399,16 +11399,16 @@
         <v>0</v>
       </c>
       <c r="AX55" s="0">
-        <v>0</v>
+        <v>0.52362944742550255</v>
       </c>
       <c r="AY55" s="0">
-        <v>0</v>
+        <v>0.85579221642453074</v>
       </c>
       <c r="AZ55" s="0">
         <v>0</v>
       </c>
       <c r="BA55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB55" s="0">
         <v>0</v>
@@ -11417,10 +11417,10 @@
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11429,7 +11429,7 @@
         <v>0</v>
       </c>
       <c r="BH55" s="0">
-        <v>0</v>
+        <v>0.70101243565313931</v>
       </c>
       <c r="BI55" s="0">
         <v>0</v>
@@ -11500,7 +11500,7 @@
         <v>0</v>
       </c>
       <c r="O56" s="0">
-        <v>0</v>
+        <v>0.81524134503086509</v>
       </c>
       <c r="P56" s="0">
         <v>0</v>
@@ -11521,13 +11521,13 @@
         <v>0</v>
       </c>
       <c r="V56" s="0">
-        <v>0</v>
+        <v>0.96000909977905469</v>
       </c>
       <c r="W56" s="0">
         <v>0</v>
       </c>
       <c r="X56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y56" s="0">
         <v>0</v>
@@ -11548,13 +11548,13 @@
         <v>0</v>
       </c>
       <c r="AE56" s="0">
-        <v>0</v>
+        <v>0.89571766096227878</v>
       </c>
       <c r="AF56" s="0">
         <v>0</v>
       </c>
       <c r="AG56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH56" s="0">
         <v>0</v>
@@ -11617,16 +11617,16 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>0</v>
+        <v>0.58272300432121393</v>
       </c>
       <c r="BC56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF56" s="0">
         <v>0</v>
@@ -11641,7 +11641,7 @@
         <v>0</v>
       </c>
       <c r="BJ56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK56" s="0">
         <v>0</v>
@@ -11673,7 +11673,7 @@
         <v>0</v>
       </c>
       <c r="D57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" s="0">
         <v>0</v>
@@ -11703,7 +11703,7 @@
         <v>0</v>
       </c>
       <c r="N57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O57" s="0">
         <v>0</v>
@@ -11805,13 +11805,13 @@
         <v>0</v>
       </c>
       <c r="AV57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW57" s="0">
         <v>0</v>
       </c>
       <c r="AX57" s="0">
-        <v>0</v>
+        <v>0.59962868952814774</v>
       </c>
       <c r="AY57" s="0">
         <v>0</v>
@@ -11820,22 +11820,22 @@
         <v>0</v>
       </c>
       <c r="BA57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB57" s="0">
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>0</v>
+        <v>0.91064486024078062</v>
       </c>
       <c r="BG57" s="0">
         <v>0</v>
@@ -11891,7 +11891,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" s="0">
         <v>0</v>
@@ -11906,7 +11906,7 @@
         <v>0</v>
       </c>
       <c r="M58" s="0">
-        <v>0</v>
+        <v>0.80767961712078751</v>
       </c>
       <c r="N58" s="0">
         <v>0</v>
@@ -11927,7 +11927,7 @@
         <v>0</v>
       </c>
       <c r="T58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U58" s="0">
         <v>0</v>
@@ -11960,10 +11960,10 @@
         <v>0</v>
       </c>
       <c r="AE58" s="0">
-        <v>1</v>
+        <v>0.90100974133815259</v>
       </c>
       <c r="AF58" s="0">
-        <v>0</v>
+        <v>0.85705932285853503</v>
       </c>
       <c r="AG58" s="0">
         <v>0</v>
@@ -11975,7 +11975,7 @@
         <v>0</v>
       </c>
       <c r="AJ58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK58" s="0">
         <v>0</v>
@@ -12038,7 +12038,7 @@
         <v>0</v>
       </c>
       <c r="BE58" s="0">
-        <v>0</v>
+        <v>0.81916717990829624</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
@@ -12082,7 +12082,7 @@
         <v>0</v>
       </c>
       <c r="C59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59" s="0">
         <v>0</v>
@@ -12199,7 +12199,7 @@
         <v>0</v>
       </c>
       <c r="AP59" s="0">
-        <v>0</v>
+        <v>0.77721004306291297</v>
       </c>
       <c r="AQ59" s="0">
         <v>0</v>
@@ -12220,7 +12220,7 @@
         <v>0</v>
       </c>
       <c r="AW59" s="0">
-        <v>0</v>
+        <v>0.95117127154009773</v>
       </c>
       <c r="AX59" s="0">
         <v>0</v>
@@ -12253,7 +12253,7 @@
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI59" s="0">
         <v>0</v>
@@ -12309,7 +12309,7 @@
         <v>0</v>
       </c>
       <c r="J60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60" s="0">
         <v>0</v>
@@ -12357,13 +12357,13 @@
         <v>0</v>
       </c>
       <c r="Z60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA60" s="0">
         <v>0</v>
       </c>
       <c r="AB60" s="0">
-        <v>1</v>
+        <v>0.6270069012099776</v>
       </c>
       <c r="AC60" s="0">
         <v>0</v>
@@ -12396,7 +12396,7 @@
         <v>0</v>
       </c>
       <c r="AM60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN60" s="0">
         <v>0</v>
@@ -12444,7 +12444,7 @@
         <v>0</v>
       </c>
       <c r="BC60" s="0">
-        <v>0</v>
+        <v>0.97477183052360084</v>
       </c>
       <c r="BD60" s="0">
         <v>0</v>
@@ -12456,19 +12456,19 @@
         <v>0</v>
       </c>
       <c r="BG60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>0</v>
+        <v>0.82616725708970673</v>
       </c>
       <c r="BJ60" s="0">
         <v>0</v>
       </c>
       <c r="BK60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL60" s="0">
         <v>0</v>
@@ -12506,7 +12506,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="0">
-        <v>0</v>
+        <v>0.75466255317426123</v>
       </c>
       <c r="H61" s="0">
         <v>0</v>
@@ -12518,7 +12518,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="0">
-        <v>0</v>
+        <v>0.61028780635998781</v>
       </c>
       <c r="L61" s="0">
         <v>0</v>
@@ -12551,7 +12551,7 @@
         <v>0</v>
       </c>
       <c r="V61" s="0">
-        <v>0</v>
+        <v>0.84440392548514143</v>
       </c>
       <c r="W61" s="0">
         <v>0</v>
@@ -12596,7 +12596,7 @@
         <v>0</v>
       </c>
       <c r="AK61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL61" s="0">
         <v>0</v>
@@ -12665,7 +12665,7 @@
         <v>0</v>
       </c>
       <c r="BH61" s="0">
-        <v>0</v>
+        <v>0.59334054285567428</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
@@ -12677,7 +12677,7 @@
         <v>0</v>
       </c>
       <c r="BL61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM61" s="0">
         <v>0</v>
@@ -12736,13 +12736,13 @@
         <v>0</v>
       </c>
       <c r="O62" s="0">
-        <v>1</v>
+        <v>0.64098650963518056</v>
       </c>
       <c r="P62" s="0">
-        <v>0</v>
+        <v>0.5244824849603732</v>
       </c>
       <c r="Q62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R62" s="0">
         <v>0</v>
@@ -12793,7 +12793,7 @@
         <v>0</v>
       </c>
       <c r="AH62" s="0">
-        <v>0</v>
+        <v>0.50654493920819932</v>
       </c>
       <c r="AI62" s="0">
         <v>0</v>
@@ -12859,7 +12859,7 @@
         <v>0</v>
       </c>
       <c r="BD62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE62" s="0">
         <v>0</v>
@@ -12880,10 +12880,10 @@
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL62" s="0">
-        <v>0</v>
+        <v>0.66286405273323168</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -12906,7 +12906,7 @@
         <v>0</v>
       </c>
       <c r="C63" s="0">
-        <v>0</v>
+        <v>0.78486203703394253</v>
       </c>
       <c r="D63" s="0">
         <v>0</v>
@@ -12930,7 +12930,7 @@
         <v>0</v>
       </c>
       <c r="K63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L63" s="0">
         <v>0</v>
@@ -12975,7 +12975,7 @@
         <v>0</v>
       </c>
       <c r="Z63" s="0">
-        <v>0</v>
+        <v>0.68611213971629659</v>
       </c>
       <c r="AA63" s="0">
         <v>0</v>
@@ -13002,7 +13002,7 @@
         <v>0</v>
       </c>
       <c r="AI63" s="0">
-        <v>0</v>
+        <v>0.88041293071737581</v>
       </c>
       <c r="AJ63" s="0">
         <v>0</v>
@@ -13056,7 +13056,7 @@
         <v>0</v>
       </c>
       <c r="BA63" s="0">
-        <v>0</v>
+        <v>0.5982527028078215</v>
       </c>
       <c r="BB63" s="0">
         <v>0</v>
@@ -13077,19 +13077,19 @@
         <v>0</v>
       </c>
       <c r="BH63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI63" s="0">
         <v>0</v>
       </c>
       <c r="BJ63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>0</v>
+        <v>0.80900009469133849</v>
       </c>
       <c r="BM63" s="0">
         <v>0</v>
@@ -13130,7 +13130,7 @@
         <v>0</v>
       </c>
       <c r="I64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" s="0">
         <v>0</v>
@@ -13169,7 +13169,7 @@
         <v>0</v>
       </c>
       <c r="V64" s="0">
-        <v>0</v>
+        <v>0.60124928702983493</v>
       </c>
       <c r="W64" s="0">
         <v>0</v>
@@ -13220,7 +13220,7 @@
         <v>0</v>
       </c>
       <c r="AM64" s="0">
-        <v>0</v>
+        <v>0.63418794706579107</v>
       </c>
       <c r="AN64" s="0">
         <v>0</v>
@@ -13286,13 +13286,13 @@
         <v>0</v>
       </c>
       <c r="BI64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>0</v>
+        <v>0.56681993875624603</v>
       </c>
       <c r="BK64" s="0">
-        <v>0</v>
+        <v>0.87353130395478396</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
@@ -13301,7 +13301,7 @@
         <v>0</v>
       </c>
       <c r="BN64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13348,7 +13348,7 @@
         <v>0</v>
       </c>
       <c r="M65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N65" s="0">
         <v>0</v>
@@ -13366,13 +13366,13 @@
         <v>0</v>
       </c>
       <c r="S65" s="0">
-        <v>0</v>
+        <v>0.85657208556813702</v>
       </c>
       <c r="T65" s="0">
         <v>0</v>
       </c>
       <c r="U65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V65" s="0">
         <v>0</v>
@@ -13408,7 +13408,7 @@
         <v>0</v>
       </c>
       <c r="AG65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH65" s="0">
         <v>0</v>
@@ -13420,7 +13420,7 @@
         <v>0</v>
       </c>
       <c r="AK65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL65" s="0">
         <v>0</v>
@@ -13444,7 +13444,7 @@
         <v>0</v>
       </c>
       <c r="AS65" s="0">
-        <v>0</v>
+        <v>0.65687264021635428</v>
       </c>
       <c r="AT65" s="0">
         <v>0</v>
@@ -13462,7 +13462,7 @@
         <v>0</v>
       </c>
       <c r="AY65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ65" s="0">
         <v>0</v>
@@ -13510,7 +13510,7 @@
         <v>0</v>
       </c>
       <c r="BO65" s="0">
-        <v>0</v>
+        <v>0.76950470536512849</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13527,7 +13527,7 @@
         <v>0</v>
       </c>
       <c r="D66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E66" s="0">
         <v>0</v>
@@ -13551,7 +13551,7 @@
         <v>0</v>
       </c>
       <c r="L66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M66" s="0">
         <v>0</v>
@@ -13647,7 +13647,7 @@
         <v>0</v>
       </c>
       <c r="AR66" s="0">
-        <v>0</v>
+        <v>0.9859732370695713</v>
       </c>
       <c r="AS66" s="0">
         <v>0</v>
@@ -13662,7 +13662,7 @@
         <v>0</v>
       </c>
       <c r="AW66" s="0">
-        <v>0</v>
+        <v>0.99055643862437837</v>
       </c>
       <c r="AX66" s="0">
         <v>0</v>
@@ -13707,7 +13707,7 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM66" s="0">
         <v>0</v>
@@ -13716,7 +13716,7 @@
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>1</v>
+        <v>0.69070705399726107</v>
       </c>
       <c r="BP66" s="0">
         <v>0</v>
@@ -13730,13 +13730,13 @@
         <v>0</v>
       </c>
       <c r="C67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D67" s="0">
         <v>0</v>
       </c>
       <c r="E67" s="0">
-        <v>0</v>
+        <v>0.68001571766738511</v>
       </c>
       <c r="F67" s="0">
         <v>0</v>
@@ -13778,7 +13778,7 @@
         <v>0</v>
       </c>
       <c r="S67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T67" s="0">
         <v>0</v>
@@ -13796,7 +13796,7 @@
         <v>0</v>
       </c>
       <c r="Y67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z67" s="0">
         <v>0</v>
@@ -13865,7 +13865,7 @@
         <v>0</v>
       </c>
       <c r="AV67" s="0">
-        <v>0</v>
+        <v>0.56935831124528002</v>
       </c>
       <c r="AW67" s="0">
         <v>0</v>
@@ -13883,7 +13883,7 @@
         <v>0</v>
       </c>
       <c r="BB67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC67" s="0">
         <v>0</v>
@@ -13916,16 +13916,16 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>0</v>
+        <v>0.50271784332264668</v>
       </c>
       <c r="BN67" s="0">
-        <v>1</v>
+        <v>0.94063051471197912</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>0</v>
+        <v>0.51894622087947129</v>
       </c>
     </row>
     <row r="68">
@@ -13945,7 +13945,7 @@
         <v>0</v>
       </c>
       <c r="F68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" s="0">
         <v>0</v>
@@ -13975,7 +13975,7 @@
         <v>0</v>
       </c>
       <c r="P68" s="0">
-        <v>0</v>
+        <v>0.70804769351204588</v>
       </c>
       <c r="Q68" s="0">
         <v>0</v>
@@ -13999,7 +13999,7 @@
         <v>0</v>
       </c>
       <c r="X68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y68" s="0">
         <v>0</v>
@@ -14008,10 +14008,10 @@
         <v>0</v>
       </c>
       <c r="AA68" s="0">
-        <v>0</v>
+        <v>0.60889353749688002</v>
       </c>
       <c r="AB68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC68" s="0">
         <v>0</v>
@@ -14059,16 +14059,16 @@
         <v>0</v>
       </c>
       <c r="AR68" s="0">
-        <v>0</v>
+        <v>0.84057073923876469</v>
       </c>
       <c r="AS68" s="0">
         <v>0</v>
       </c>
       <c r="AT68" s="0">
-        <v>0</v>
+        <v>0.8875028705355017</v>
       </c>
       <c r="AU68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV68" s="0">
         <v>0</v>
@@ -14128,7 +14128,7 @@
         <v>0</v>
       </c>
       <c r="BO68" s="0">
-        <v>0</v>
+        <v>0.89601012707136629</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject3.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject3.xlsx
@@ -143,7 +143,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="0">
-        <v>0.85958044719770177</v>
+        <v>0.89013549103003475</v>
       </c>
       <c r="G1" s="0">
         <v>0</v>
@@ -212,7 +212,7 @@
         <v>0</v>
       </c>
       <c r="AC1" s="0">
-        <v>0.55912107944494815</v>
+        <v>0.66207240043915927</v>
       </c>
       <c r="AD1" s="0">
         <v>0</v>
@@ -257,7 +257,7 @@
         <v>0</v>
       </c>
       <c r="AR1" s="0">
-        <v>0.67218154658216256</v>
+        <v>0.8873312886028093</v>
       </c>
       <c r="AS1" s="0">
         <v>0</v>
@@ -657,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="AN3" s="0">
-        <v>0.58464555176115862</v>
+        <v>0.80726888363099336</v>
       </c>
       <c r="AO3" s="0">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="AM5" s="0">
-        <v>0.7084672852863354</v>
+        <v>0.9725121859528959</v>
       </c>
       <c r="AN5" s="0">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="AQ5" s="0">
-        <v>0.62133931296479017</v>
+        <v>0.874992001613762</v>
       </c>
       <c r="AR5" s="0">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="BO5" s="0">
-        <v>0.67031466021566288</v>
+        <v>0.68001571766738511</v>
       </c>
       <c r="BP5" s="0">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0.56954231986337922</v>
       </c>
       <c r="Z6" s="0">
-        <v>0.50166892167978072</v>
+        <v>0.81345373379701247</v>
       </c>
       <c r="AA6" s="0">
         <v>0</v>
@@ -1248,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="AE6" s="0">
-        <v>0.6931996662948543</v>
+        <v>0.87270707308456319</v>
       </c>
       <c r="AF6" s="0">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.52550423192457951</v>
+        <v>0.79298596809369504</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="0">
-        <v>0.79126716461233026</v>
+        <v>0.92207673735410445</v>
       </c>
       <c r="X7" s="0">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="0">
-        <v>0.66725092131655894</v>
+        <v>0.80071516474976956</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="AR8" s="0">
-        <v>0.73043786916843834</v>
+        <v>0.74536481675458954</v>
       </c>
       <c r="AS8" s="0">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="0">
-        <v>0.5733308802529764</v>
+        <v>0.63577980489087826</v>
       </c>
       <c r="P9" s="0">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="S9" s="0">
-        <v>0.52678665631194388</v>
+        <v>0.87477449045373068</v>
       </c>
       <c r="T9" s="0">
         <v>0</v>
@@ -2021,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="0">
-        <v>0.63058524649689041</v>
+        <v>0.69116486382783959</v>
       </c>
       <c r="O10" s="0">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="AN10" s="0">
-        <v>0.56924021627037313</v>
+        <v>0.95922751645924076</v>
       </c>
       <c r="AO10" s="0">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="0">
-        <v>0.59779995316093304</v>
+        <v>0.73012326293240759</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="V11" s="0">
-        <v>0.57987814209978672</v>
+        <v>0.97749739580224038</v>
       </c>
       <c r="W11" s="0">
         <v>0</v>
@@ -2433,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="0">
-        <v>0.70128284654161921</v>
+        <v>0.8639012368963066</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="AJ12" s="0">
-        <v>0.69279981657604095</v>
+        <v>0.85907011383312915</v>
       </c>
       <c r="AK12" s="0">
         <v>0</v>
@@ -2514,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="AO12" s="0">
-        <v>0.70894129024700914</v>
+        <v>0.77982091963826494</v>
       </c>
       <c r="AP12" s="0">
         <v>0</v>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>0.68308222036693156</v>
+        <v>0.99141467602122535</v>
       </c>
       <c r="O13" s="0">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>0.64396057088548209</v>
+        <v>0.698939136859418</v>
       </c>
       <c r="P14" s="0">
         <v>0</v>
@@ -2920,7 +2920,7 @@
         <v>0</v>
       </c>
       <c r="AM14" s="0">
-        <v>0.92706901796197072</v>
+        <v>0.94020400269072191</v>
       </c>
       <c r="AN14" s="0">
         <v>0</v>
@@ -3021,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="0">
-        <v>0.68141824034460563</v>
+        <v>0.95501951163764787</v>
       </c>
       <c r="E15" s="0">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="AO15" s="0">
-        <v>0.6701862190939456</v>
+        <v>0.96510653930901569</v>
       </c>
       <c r="AP15" s="0">
         <v>0</v>
@@ -3165,7 +3165,7 @@
         <v>0</v>
       </c>
       <c r="AZ15" s="0">
-        <v>0.799183230407984</v>
+        <v>0.89548254298502639</v>
       </c>
       <c r="BA15" s="0">
         <v>0</v>
@@ -3177,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="BD15" s="0">
-        <v>0.57397167801182558</v>
+        <v>0.81524134503086509</v>
       </c>
       <c r="BE15" s="0">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0.64882892655206192</v>
       </c>
       <c r="AG16" s="0">
-        <v>0.77015646602316989</v>
+        <v>0.84707728733676513</v>
       </c>
       <c r="AH16" s="0">
         <v>0</v>
@@ -3356,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="AU16" s="0">
-        <v>0.51970879664038638</v>
+        <v>0.70424565895922697</v>
       </c>
       <c r="AV16" s="0">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="AW17" s="0">
-        <v>0.57997167018447215</v>
+        <v>0.99907130047479464</v>
       </c>
       <c r="AX17" s="0">
         <v>0</v>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>0.88983291386486196</v>
+        <v>0.89130154772810877</v>
       </c>
       <c r="T18" s="0">
         <v>0.97038241392971636</v>
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>0.69301196218192007</v>
+        <v>0.7698552190447927</v>
       </c>
       <c r="R19" s="0">
         <v>0.89130154772810877</v>
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="BM19" s="0">
-        <v>0.80460852914746095</v>
+        <v>0.85657208556813702</v>
       </c>
       <c r="BN19" s="0">
         <v>0</v>
@@ -4060,7 +4060,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="0">
-        <v>0.55540165459310997</v>
+        <v>0.75816528074871781</v>
       </c>
       <c r="H20" s="0">
         <v>0</v>
@@ -4093,10 +4093,10 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>0.90682582457387784</v>
+        <v>0.97038241392971636</v>
       </c>
       <c r="S20" s="0">
-        <v>0.81265372360345212</v>
+        <v>0.93962495450488115</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
@@ -4108,7 +4108,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="0">
-        <v>0.54122250411369333</v>
+        <v>0.66440883216811342</v>
       </c>
       <c r="X20" s="0">
         <v>0</v>
@@ -4344,7 +4344,7 @@
         <v>0</v>
       </c>
       <c r="AG21" s="0">
-        <v>0.6975733301881113</v>
+        <v>0.95913251337339278</v>
       </c>
       <c r="AH21" s="0">
         <v>0</v>
@@ -4398,7 +4398,7 @@
         <v>0</v>
       </c>
       <c r="AY21" s="0">
-        <v>0.76674469075546359</v>
+        <v>0.83080552707597111</v>
       </c>
       <c r="AZ21" s="0">
         <v>0</v>
@@ -4481,7 +4481,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="0">
-        <v>0.90148653240421994</v>
+        <v>0.95152133331046085</v>
       </c>
       <c r="K22" s="0">
         <v>0.97749739580224038</v>
@@ -4541,7 +4541,7 @@
         <v>0</v>
       </c>
       <c r="AD22" s="0">
-        <v>0.88102909086379966</v>
+        <v>0.8934064589303341</v>
       </c>
       <c r="AE22" s="0">
         <v>0</v>
@@ -4568,7 +4568,7 @@
         <v>0</v>
       </c>
       <c r="AM22" s="0">
-        <v>0.72651119790562113</v>
+        <v>0.95799480335733933</v>
       </c>
       <c r="AN22" s="0">
         <v>0</v>
@@ -4577,7 +4577,7 @@
         <v>0</v>
       </c>
       <c r="AP22" s="0">
-        <v>0.66338650138354938</v>
+        <v>0.79557682299644106</v>
       </c>
       <c r="AQ22" s="0">
         <v>0</v>
@@ -4619,7 +4619,7 @@
         <v>0</v>
       </c>
       <c r="BD22" s="0">
-        <v>0.51793977398319213</v>
+        <v>0.96000909977905469</v>
       </c>
       <c r="BE22" s="0">
         <v>0</v>
@@ -4634,7 +4634,7 @@
         <v>0</v>
       </c>
       <c r="BI22" s="0">
-        <v>0.54204574427809693</v>
+        <v>0.84440392548514143</v>
       </c>
       <c r="BJ22" s="0">
         <v>0</v>
@@ -4765,7 +4765,7 @@
         <v>0</v>
       </c>
       <c r="AJ23" s="0">
-        <v>0.7453664911418979</v>
+        <v>0.85019374560942207</v>
       </c>
       <c r="AK23" s="0">
         <v>0</v>
@@ -4977,7 +4977,7 @@
         <v>0</v>
       </c>
       <c r="AL24" s="0">
-        <v>0.61400853957264934</v>
+        <v>0.79676766481033645</v>
       </c>
       <c r="AM24" s="0">
         <v>0</v>
@@ -4998,7 +4998,7 @@
         <v>0</v>
       </c>
       <c r="AS24" s="0">
-        <v>0.73020377043260964</v>
+        <v>0.90153100348584136</v>
       </c>
       <c r="AT24" s="0">
         <v>0</v>
@@ -5087,7 +5087,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="0">
-        <v>0.55196463481898395</v>
+        <v>0.56954231986337922</v>
       </c>
       <c r="G25" s="0">
         <v>0</v>
@@ -5129,7 +5129,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="0">
-        <v>0.71586076565759582</v>
+        <v>0.73213758471012258</v>
       </c>
       <c r="U25" s="0">
         <v>0</v>
@@ -5341,7 +5341,7 @@
         <v>0</v>
       </c>
       <c r="V26" s="0">
-        <v>0.50927782020838697</v>
+        <v>0.78040350107890766</v>
       </c>
       <c r="W26" s="0">
         <v>0</v>
@@ -5464,7 +5464,7 @@
         <v>0</v>
       </c>
       <c r="BK26" s="0">
-        <v>0.5756589746247639</v>
+        <v>0.68611213971629659</v>
       </c>
       <c r="BL26" s="0">
         <v>0</v>
@@ -5535,7 +5535,7 @@
         <v>0</v>
       </c>
       <c r="R27" s="0">
-        <v>0.74291589612816067</v>
+        <v>0.80454411166495077</v>
       </c>
       <c r="S27" s="0">
         <v>0</v>
@@ -5556,7 +5556,7 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>0.59860922983078857</v>
+        <v>0.93450590437568271</v>
       </c>
       <c r="Z27" s="0">
         <v>0</v>
@@ -5592,10 +5592,10 @@
         <v>0</v>
       </c>
       <c r="AK27" s="0">
-        <v>0.60771027144794143</v>
+        <v>0.92522662392404298</v>
       </c>
       <c r="AL27" s="0">
-        <v>0.79156191538087806</v>
+        <v>0.84067170633062982</v>
       </c>
       <c r="AM27" s="0">
         <v>0</v>
@@ -5867,7 +5867,7 @@
         <v>0</v>
       </c>
       <c r="BH28" s="0">
-        <v>0.55021516764966738</v>
+        <v>0.6270069012099776</v>
       </c>
       <c r="BI28" s="0">
         <v>0</v>
@@ -5983,7 +5983,7 @@
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>0.71696032150208477</v>
+        <v>0.73507300955594201</v>
       </c>
       <c r="AE29" s="0">
         <v>0.93799904224796427</v>
@@ -6105,7 +6105,7 @@
         <v>0</v>
       </c>
       <c r="B30" s="0">
-        <v>0.62190622235786064</v>
+        <v>0.85236262328097068</v>
       </c>
       <c r="C30" s="0">
         <v>0</v>
@@ -6183,7 +6183,7 @@
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>0.61395215946982029</v>
+        <v>0.97745787816994811</v>
       </c>
       <c r="AC30" s="0">
         <v>0.73507300955594201</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="AW30" s="0">
-        <v>0.73582903405473632</v>
+        <v>0.77357583846004807</v>
       </c>
       <c r="AX30" s="0">
         <v>0</v>
@@ -6386,13 +6386,13 @@
         <v>0</v>
       </c>
       <c r="AA31" s="0">
-        <v>0.62998111069098495</v>
+        <v>0.87137755021320284</v>
       </c>
       <c r="AB31" s="0">
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>0.54345762957415156</v>
+        <v>0.93799904224796427</v>
       </c>
       <c r="AD31" s="0">
         <v>0</v>
@@ -6473,13 +6473,13 @@
         <v>0</v>
       </c>
       <c r="BD31" s="0">
-        <v>0.65741486495221291</v>
+        <v>0.89571766096227878</v>
       </c>
       <c r="BE31" s="0">
         <v>0</v>
       </c>
       <c r="BF31" s="0">
-        <v>0.85684781351592543</v>
+        <v>0.90100974133815259</v>
       </c>
       <c r="BG31" s="0">
         <v>0</v>
@@ -6559,7 +6559,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="0">
-        <v>0.6168036826804979</v>
+        <v>0.64882892655206192</v>
       </c>
       <c r="Q32" s="0">
         <v>0</v>
@@ -6628,7 +6628,7 @@
         <v>0</v>
       </c>
       <c r="AM32" s="0">
-        <v>0.59841940719514519</v>
+        <v>0.98367627497105625</v>
       </c>
       <c r="AN32" s="0">
         <v>0</v>
@@ -6685,7 +6685,7 @@
         <v>0</v>
       </c>
       <c r="BF32" s="0">
-        <v>0.73732917809207243</v>
+        <v>0.85705932285853503</v>
       </c>
       <c r="BG32" s="0">
         <v>0</v>
@@ -6807,7 +6807,7 @@
         <v>0</v>
       </c>
       <c r="AD33" s="0">
-        <v>0.70253893283850677</v>
+        <v>0.72881171473062967</v>
       </c>
       <c r="AE33" s="0">
         <v>0</v>
@@ -6855,7 +6855,7 @@
         <v>0</v>
       </c>
       <c r="AT33" s="0">
-        <v>0.50076652729551174</v>
+        <v>0.66871030155249134</v>
       </c>
       <c r="AU33" s="0">
         <v>0</v>
@@ -6947,7 +6947,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="0">
-        <v>0.59463262800427363</v>
+        <v>0.65762801193672471</v>
       </c>
       <c r="I34" s="0">
         <v>0</v>
@@ -6992,10 +6992,10 @@
         <v>0</v>
       </c>
       <c r="W34" s="0">
-        <v>0.54496433156827784</v>
+        <v>0.54632915813003302</v>
       </c>
       <c r="X34" s="0">
-        <v>0.78075055618227951</v>
+        <v>0.99486654975276845</v>
       </c>
       <c r="Y34" s="0">
         <v>0</v>
@@ -7237,7 +7237,7 @@
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>0.77071551760155388</v>
+        <v>0.86915705698909163</v>
       </c>
       <c r="AK35" s="0">
         <v>0</v>
@@ -7294,7 +7294,7 @@
         <v>0</v>
       </c>
       <c r="BC35" s="0">
-        <v>0.77431455966012463</v>
+        <v>0.78105383681121354</v>
       </c>
       <c r="BD35" s="0">
         <v>0</v>
@@ -7407,13 +7407,13 @@
         <v>0.85019374560942207</v>
       </c>
       <c r="X36" s="0">
-        <v>0.72490653943703931</v>
+        <v>0.97317890224125481</v>
       </c>
       <c r="Y36" s="0">
         <v>0</v>
       </c>
       <c r="Z36" s="0">
-        <v>0.51850266171079484</v>
+        <v>0.86682394065593282</v>
       </c>
       <c r="AA36" s="0">
         <v>0</v>
@@ -7473,7 +7473,7 @@
         <v>0</v>
       </c>
       <c r="AT36" s="0">
-        <v>0.74606854928868205</v>
+        <v>0.87993834713845609</v>
       </c>
       <c r="AU36" s="0">
         <v>0</v>
@@ -7655,7 +7655,7 @@
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>0.61621746811526767</v>
+        <v>0.72521684719445512</v>
       </c>
       <c r="AM37" s="0">
         <v>0</v>
@@ -7682,7 +7682,7 @@
         <v>0</v>
       </c>
       <c r="AU37" s="0">
-        <v>0.59726146971231686</v>
+        <v>0.61909349029360916</v>
       </c>
       <c r="AV37" s="0">
         <v>0</v>
@@ -7906,10 +7906,10 @@
         <v>0</v>
       </c>
       <c r="BA38" s="0">
-        <v>0.82301672940141468</v>
+        <v>0.99406888606006483</v>
       </c>
       <c r="BB38" s="0">
-        <v>0.52783684695617095</v>
+        <v>0.58722520763365349</v>
       </c>
       <c r="BC38" s="0">
         <v>0</v>
@@ -7989,7 +7989,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="0">
-        <v>0.63005564233355615</v>
+        <v>0.75014425376374461</v>
       </c>
       <c r="M39" s="0">
         <v>0</v>
@@ -8145,7 +8145,7 @@
         <v>0</v>
       </c>
       <c r="BL39" s="0">
-        <v>0.63260162408889298</v>
+        <v>0.63418794706579107</v>
       </c>
       <c r="BM39" s="0">
         <v>0</v>
@@ -8210,7 +8210,7 @@
         <v>0</v>
       </c>
       <c r="Q40" s="0">
-        <v>0.5339046386254791</v>
+        <v>0.53579154903736192</v>
       </c>
       <c r="R40" s="0">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="AZ40" s="0">
-        <v>0.59086258932581326</v>
+        <v>0.68840737541776997</v>
       </c>
       <c r="BA40" s="0">
         <v>0</v>
@@ -8622,7 +8622,7 @@
         <v>0</v>
       </c>
       <c r="Q42" s="0">
-        <v>0.89614133579800836</v>
+        <v>0.90535036652384249</v>
       </c>
       <c r="R42" s="0">
         <v>0</v>
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>0.83786574290175264</v>
+        <v>0.89048588758184843</v>
       </c>
       <c r="AO42" s="0">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="AW43" s="0">
-        <v>0.57085343659663201</v>
+        <v>0.57222387731084812</v>
       </c>
       <c r="AX43" s="0">
         <v>0</v>
@@ -9103,7 +9103,7 @@
         <v>0</v>
       </c>
       <c r="AN44" s="0">
-        <v>0.70719848925563067</v>
+        <v>0.79946905799973722</v>
       </c>
       <c r="AO44" s="0">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="BP44" s="0">
-        <v>0.75353046124296319</v>
+        <v>0.84057073923876469</v>
       </c>
     </row>
     <row r="45">
@@ -9207,7 +9207,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="0">
-        <v>0.56252903555928291</v>
+        <v>0.60238191999491575</v>
       </c>
       <c r="G45" s="0">
         <v>0</v>
@@ -9440,7 +9440,7 @@
         <v>0</v>
       </c>
       <c r="O46" s="0">
-        <v>0.82952756195092747</v>
+        <v>0.93056368336890316</v>
       </c>
       <c r="P46" s="0">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>0</v>
       </c>
       <c r="AD46" s="0">
-        <v>0.71523401953736077</v>
+        <v>0.73500559231499474</v>
       </c>
       <c r="AE46" s="0">
         <v>0</v>
@@ -9599,7 +9599,7 @@
         <v>0</v>
       </c>
       <c r="BP46" s="0">
-        <v>0.51948796021091792</v>
+        <v>0.8875028705355017</v>
       </c>
     </row>
     <row r="47">
@@ -9813,7 +9813,7 @@
         <v>0</v>
       </c>
       <c r="B48" s="0">
-        <v>0.60400896685618943</v>
+        <v>0.99706599992121581</v>
       </c>
       <c r="C48" s="0">
         <v>0</v>
@@ -9930,7 +9930,7 @@
         <v>0</v>
       </c>
       <c r="AO48" s="0">
-        <v>0.69266077278769755</v>
+        <v>0.95320071873651835</v>
       </c>
       <c r="AP48" s="0">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>0</v>
       </c>
       <c r="BG49" s="0">
-        <v>0.88992485965871282</v>
+        <v>0.95117127154009773</v>
       </c>
       <c r="BH49" s="0">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="BN49" s="0">
-        <v>0.83349610387133222</v>
+        <v>0.99055643862437837</v>
       </c>
       <c r="BO49" s="0">
         <v>0</v>
@@ -10225,7 +10225,7 @@
         <v>0</v>
       </c>
       <c r="B50" s="0">
-        <v>0.60407518722882969</v>
+        <v>0.61461245595806446</v>
       </c>
       <c r="C50" s="0">
         <v>0</v>
@@ -10437,7 +10437,7 @@
         <v>0</v>
       </c>
       <c r="D51" s="0">
-        <v>0.52568910943127167</v>
+        <v>0.58063047323098438</v>
       </c>
       <c r="E51" s="0">
         <v>0</v>
@@ -10524,7 +10524,7 @@
         <v>0</v>
       </c>
       <c r="AG51" s="0">
-        <v>0.50836238210509532</v>
+        <v>0.88494151785392794</v>
       </c>
       <c r="AH51" s="0">
         <v>0</v>
@@ -10590,7 +10590,7 @@
         <v>0</v>
       </c>
       <c r="BC51" s="0">
-        <v>0.54870181623191294</v>
+        <v>0.85579221642453074</v>
       </c>
       <c r="BD51" s="0">
         <v>0</v>
@@ -10987,13 +10987,13 @@
         <v>0</v>
       </c>
       <c r="AX53" s="0">
-        <v>0.53186300655035579</v>
+        <v>0.55691819677024057</v>
       </c>
       <c r="AY53" s="0">
         <v>0</v>
       </c>
       <c r="AZ53" s="0">
-        <v>0.5252094561827001</v>
+        <v>0.63043566256223182</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
@@ -11276,7 +11276,7 @@
         <v>0</v>
       </c>
       <c r="I55" s="0">
-        <v>0.79175980069536789</v>
+        <v>0.9025855587080579</v>
       </c>
       <c r="J55" s="0">
         <v>0</v>
@@ -11345,7 +11345,7 @@
         <v>0</v>
       </c>
       <c r="AF55" s="0">
-        <v>0.70996961009308079</v>
+        <v>0.9568922565180491</v>
       </c>
       <c r="AG55" s="0">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="AX55" s="0">
-        <v>0.52362944742550255</v>
+        <v>0.53181574399063047</v>
       </c>
       <c r="AY55" s="0">
         <v>0.85579221642453074</v>
@@ -11429,7 +11429,7 @@
         <v>0</v>
       </c>
       <c r="BH55" s="0">
-        <v>0.70101243565313931</v>
+        <v>0.97477183052360084</v>
       </c>
       <c r="BI55" s="0">
         <v>0</v>
@@ -11617,7 +11617,7 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>0.58272300432121393</v>
+        <v>0.68480943022084861</v>
       </c>
       <c r="BC56" s="0">
         <v>0</v>
@@ -11811,7 +11811,7 @@
         <v>0</v>
       </c>
       <c r="AX57" s="0">
-        <v>0.59962868952814774</v>
+        <v>0.93993196524047007</v>
       </c>
       <c r="AY57" s="0">
         <v>0</v>
@@ -11906,7 +11906,7 @@
         <v>0</v>
       </c>
       <c r="M58" s="0">
-        <v>0.80767961712078751</v>
+        <v>0.89217631380460238</v>
       </c>
       <c r="N58" s="0">
         <v>0</v>
@@ -12038,7 +12038,7 @@
         <v>0</v>
       </c>
       <c r="BE58" s="0">
-        <v>0.81916717990829624</v>
+        <v>0.91064486024078062</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
@@ -12199,7 +12199,7 @@
         <v>0</v>
       </c>
       <c r="AP59" s="0">
-        <v>0.77721004306291297</v>
+        <v>0.91347513687437731</v>
       </c>
       <c r="AQ59" s="0">
         <v>0</v>
@@ -12506,7 +12506,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="0">
-        <v>0.75466255317426123</v>
+        <v>0.91635912201162761</v>
       </c>
       <c r="H61" s="0">
         <v>0</v>
@@ -12518,7 +12518,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="0">
-        <v>0.61028780635998781</v>
+        <v>0.61565839827373114</v>
       </c>
       <c r="L61" s="0">
         <v>0</v>
@@ -12665,7 +12665,7 @@
         <v>0</v>
       </c>
       <c r="BH61" s="0">
-        <v>0.59334054285567428</v>
+        <v>0.82616725708970673</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
@@ -12736,10 +12736,10 @@
         <v>0</v>
       </c>
       <c r="O62" s="0">
-        <v>0.64098650963518056</v>
+        <v>0.68009378507542184</v>
       </c>
       <c r="P62" s="0">
-        <v>0.5244824849603732</v>
+        <v>0.9150867251196515</v>
       </c>
       <c r="Q62" s="0">
         <v>0</v>
@@ -12793,7 +12793,7 @@
         <v>0</v>
       </c>
       <c r="AH62" s="0">
-        <v>0.50654493920819932</v>
+        <v>0.59282667549271506</v>
       </c>
       <c r="AI62" s="0">
         <v>0</v>
@@ -12906,7 +12906,7 @@
         <v>0</v>
       </c>
       <c r="C63" s="0">
-        <v>0.78486203703394253</v>
+        <v>0.88742534731622902</v>
       </c>
       <c r="D63" s="0">
         <v>0</v>
@@ -13002,7 +13002,7 @@
         <v>0</v>
       </c>
       <c r="AI63" s="0">
-        <v>0.88041293071737581</v>
+        <v>0.9731698605414334</v>
       </c>
       <c r="AJ63" s="0">
         <v>0</v>
@@ -13056,7 +13056,7 @@
         <v>0</v>
       </c>
       <c r="BA63" s="0">
-        <v>0.5982527028078215</v>
+        <v>0.84754890568429708</v>
       </c>
       <c r="BB63" s="0">
         <v>0</v>
@@ -13089,7 +13089,7 @@
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>0.80900009469133849</v>
+        <v>0.87353130395478396</v>
       </c>
       <c r="BM63" s="0">
         <v>0</v>
@@ -13169,7 +13169,7 @@
         <v>0</v>
       </c>
       <c r="V64" s="0">
-        <v>0.60124928702983493</v>
+        <v>0.74701656089734403</v>
       </c>
       <c r="W64" s="0">
         <v>0</v>
@@ -13289,7 +13289,7 @@
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>0.56681993875624603</v>
+        <v>0.66286405273323168</v>
       </c>
       <c r="BK64" s="0">
         <v>0.87353130395478396</v>
@@ -13444,7 +13444,7 @@
         <v>0</v>
       </c>
       <c r="AS65" s="0">
-        <v>0.65687264021635428</v>
+        <v>0.89471522251771907</v>
       </c>
       <c r="AT65" s="0">
         <v>0</v>
@@ -13647,7 +13647,7 @@
         <v>0</v>
       </c>
       <c r="AR66" s="0">
-        <v>0.9859732370695713</v>
+        <v>0.99013952346325129</v>
       </c>
       <c r="AS66" s="0">
         <v>0</v>
@@ -13716,7 +13716,7 @@
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>0.69070705399726107</v>
+        <v>0.94063051471197912</v>
       </c>
       <c r="BP66" s="0">
         <v>0</v>
@@ -13865,7 +13865,7 @@
         <v>0</v>
       </c>
       <c r="AV67" s="0">
-        <v>0.56935831124528002</v>
+        <v>0.92704040700953061</v>
       </c>
       <c r="AW67" s="0">
         <v>0</v>
@@ -13916,7 +13916,7 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>0.50271784332264668</v>
+        <v>0.76950470536512849</v>
       </c>
       <c r="BN67" s="0">
         <v>0.94063051471197912</v>
@@ -13925,7 +13925,7 @@
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>0.51894622087947129</v>
+        <v>0.89601012707136629</v>
       </c>
     </row>
     <row r="68">
@@ -13975,7 +13975,7 @@
         <v>0</v>
       </c>
       <c r="P68" s="0">
-        <v>0.70804769351204588</v>
+        <v>0.96225817613710118</v>
       </c>
       <c r="Q68" s="0">
         <v>0</v>
@@ -14008,7 +14008,7 @@
         <v>0</v>
       </c>
       <c r="AA68" s="0">
-        <v>0.60889353749688002</v>
+        <v>0.78334750575725431</v>
       </c>
       <c r="AB68" s="0">
         <v>0</v>
